--- a/UNACDEMY_PROJECT-46076939/testNg.xlsx
+++ b/UNACDEMY_PROJECT-46076939/testNg.xlsx
@@ -125,8 +125,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,7 +437,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
@@ -465,6 +466,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
